--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T09:35:45+00:00</t>
+    <t>2022-01-17T15:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:12:34+00:00</t>
+    <t>2022-01-18T14:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:53:37+00:00</t>
+    <t>2022-01-18T14:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:54:46+00:00</t>
+    <t>2022-01-19T12:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T12:18:41+00:00</t>
+    <t>2022-01-20T09:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T09:35:42+00:00</t>
+    <t>2022-01-25T15:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T15:16:25+00:00</t>
+    <t>2022-02-01T15:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-co-prescription-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -291,7 +291,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -307,74 +310,76 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -396,44 +401,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -294,9 +291,7 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -310,76 +305,74 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -401,44 +394,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -291,7 +294,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -305,74 +310,76 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -394,44 +401,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-co-prescription-status.xlsx
+++ b/ValueSet-be-vs-co-prescription-status.xlsx
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
